--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>..</t>
@@ -121,7 +121,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -163,13 +163,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -187,7 +187,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -256,7 +256,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -268,7 +268,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -370,7 +370,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -388,7 +388,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -406,7 +406,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="173">
   <si>
     <t>Tableau 5 : Estimations démographiques</t>
   </si>
@@ -1364,11 +1361,9 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1383,48 +1378,48 @@
     </row>
     <row r="2" spans="1:13" ht="95" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="13">
         <v>32866.267999999996</v>
@@ -1460,10 +1455,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="19">
         <v>2351.625</v>
@@ -1475,16 +1470,16 @@
         <v>703.55399999999997</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="21">
         <v>7.2676039359281503</v>
@@ -1498,10 +1493,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="25">
         <v>1160.164</v>
@@ -1513,16 +1508,16 @@
         <v>1091.4000000000001</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="27">
         <v>6.8542865976649301</v>
@@ -1536,10 +1531,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="25">
         <v>2142.252</v>
@@ -1551,16 +1546,16 @@
         <v>1648.125</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="27">
         <v>7.8787766188694404</v>
@@ -1574,10 +1569,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="25">
         <v>19129.955000000002</v>
@@ -1612,10 +1607,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="25">
         <v>31255.435000000001</v>
@@ -1650,10 +1645,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="25">
         <v>2540.9160000000002</v>
@@ -1671,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="27">
         <v>6.01957859382411</v>
@@ -1688,10 +1683,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="25">
         <v>59308.69</v>
@@ -1726,10 +1721,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="19">
         <v>18383.955999999998</v>
@@ -1764,10 +1759,10 @@
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="30">
         <v>14862.927</v>
@@ -1802,10 +1797,10 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="36">
         <v>184002.18799999999</v>
@@ -1840,10 +1835,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="25">
         <v>11890.781000000001</v>
@@ -1855,10 +1850,10 @@
         <v>10302.641</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="25">
         <v>1012.996</v>
@@ -1878,10 +1873,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="25">
         <v>26545.864000000001</v>
@@ -1916,10 +1911,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="25">
         <v>4829.7640000000001</v>
@@ -1937,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="27">
         <v>5.2145383380060197</v>
@@ -1954,10 +1949,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="13">
         <v>16425.859</v>
@@ -1969,10 +1964,10 @@
         <v>12454.833000000001</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="13">
         <v>1422.547</v>
@@ -1992,10 +1987,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="13">
         <v>5518.0919999999996</v>
@@ -2007,10 +2002,10 @@
         <v>1829.5640000000001</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="13">
         <v>3602.3710000000001</v>
@@ -2030,10 +2025,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="19">
         <v>89561.403999999995</v>
@@ -2068,10 +2063,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>1402.9849999999999</v>
@@ -2089,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="15">
         <v>3.9144106358749902</v>
@@ -2106,10 +2101,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="13">
         <v>2225.7280000000001</v>
@@ -2127,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="15">
         <v>5.9602910331555599</v>
@@ -2144,10 +2139,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="25">
         <v>219.161</v>
@@ -2159,16 +2154,16 @@
         <v>55.91</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="27">
         <v>5.4464647132200499</v>
@@ -2182,10 +2177,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="36">
         <v>158619.63800000001</v>
@@ -2220,10 +2215,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="C24" s="25">
         <v>869.59500000000003</v>
@@ -2235,16 +2230,16 @@
         <v>614.11400000000003</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="27">
         <v>5.3658429966857204</v>
@@ -2258,10 +2253,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="C25" s="25">
         <v>988.00199999999995</v>
@@ -2279,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="27">
         <v>7.0902099266903296</v>
@@ -2296,10 +2291,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="25">
         <v>3546.4270000000001</v>
@@ -2317,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="27">
         <v>8.2887438444722807</v>
@@ -2334,10 +2329,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="25">
         <v>114963.583</v>
@@ -2372,10 +2367,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="25">
         <v>53771.3</v>
@@ -2410,10 +2405,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="25">
         <v>27691.019</v>
@@ -2448,10 +2443,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="C30" s="25">
         <v>1271.7670000000001</v>
@@ -2463,16 +2458,16 @@
         <v>754.78399999999999</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="27">
         <v>17.709900909708701</v>
@@ -2486,10 +2481,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="C31" s="25">
         <v>12952.209000000001</v>
@@ -2501,10 +2496,10 @@
         <v>10805.843000000001</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="25">
         <v>1132.1010000000001</v>
@@ -2524,10 +2519,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="C32" s="25">
         <v>98.34</v>
@@ -2539,16 +2534,16 @@
         <v>40.804000000000002</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="27">
         <v>11.8339399725521</v>
@@ -2562,10 +2557,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="25">
         <v>15893.218999999999</v>
@@ -2600,10 +2595,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="19">
         <v>11193.728999999999</v>
@@ -2621,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="21">
         <v>6.06077146604646</v>
@@ -2638,10 +2633,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="25">
         <v>43849.269</v>
@@ -2676,10 +2671,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="25">
         <v>59734.213000000003</v>
@@ -2714,10 +2709,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="25">
         <v>45741</v>
@@ -2729,10 +2724,10 @@
         <v>35412.690999999999</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="25">
         <v>3298.364</v>
@@ -2752,10 +2747,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="36">
         <v>392563.67200000002</v>
@@ -2790,10 +2785,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="13">
         <v>43851.042999999998</v>
@@ -2828,10 +2823,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="25">
         <v>102334.40300000001</v>
@@ -2866,10 +2861,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="13">
         <v>6871.2870000000003</v>
@@ -2904,10 +2899,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="13">
         <v>4649.66</v>
@@ -2919,10 +2914,10 @@
         <v>2137.0529999999999</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="13">
         <v>1314.636</v>
@@ -2942,10 +2937,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="25">
         <v>36910.557999999997</v>
@@ -2980,10 +2975,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="25">
         <v>11818.618</v>
@@ -3018,10 +3013,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="36">
         <v>206435.56899999999</v>
@@ -3056,10 +3051,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="25">
         <v>12123.198</v>
@@ -3094,10 +3089,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="25">
         <v>20903.277999999998</v>
@@ -3132,10 +3127,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="25">
         <v>555.98800000000006</v>
@@ -3147,16 +3142,16 @@
         <v>189.2</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="27">
         <v>7.1298630665484302</v>
@@ -3170,10 +3165,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="25">
         <v>26378.275000000001</v>
@@ -3208,10 +3203,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="25">
         <v>2416.6640000000002</v>
@@ -3229,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" s="27">
         <v>4.7297699559519701</v>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="19">
         <v>31072.945</v>
@@ -3284,10 +3279,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="25">
         <v>13132.791999999999</v>
@@ -3299,10 +3294,10 @@
         <v>8680.17</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="25">
         <v>1938.2719999999999</v>
@@ -3322,10 +3317,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="25">
         <v>1967.998</v>
@@ -3343,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="27">
         <v>5.2290855453424703</v>
@@ -3360,10 +3355,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="25">
         <v>5057.6769999999997</v>
@@ -3375,10 +3370,10 @@
         <v>2445.2919999999999</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="25">
         <v>1517.2349999999999</v>
@@ -3398,10 +3393,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="25">
         <v>20250.833999999999</v>
@@ -3436,10 +3431,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="25">
         <v>24206.635999999999</v>
@@ -3474,10 +3469,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="13">
         <v>206139.587</v>
@@ -3512,10 +3507,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="25">
         <v>16743.93</v>
@@ -3550,10 +3545,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="25">
         <v>7976.9849999999997</v>
@@ -3565,10 +3560,10 @@
         <v>4592.96</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="25">
         <v>1201.9000000000001</v>
@@ -3588,10 +3583,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="19">
         <v>8278.7369999999992</v>
@@ -3603,10 +3598,10 @@
         <v>4795.8270000000002</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="19">
         <v>1827.8779999999999</v>
@@ -3627,7 +3622,7 @@
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="34"/>
       <c r="B61" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="36">
         <v>397205.52399999998</v>
@@ -3663,7 +3658,7 @@
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="42"/>
       <c r="B62" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="44">
         <v>1338826.591</v>
@@ -3699,7 +3694,7 @@
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="42"/>
       <c r="B63" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="44">
         <v>6411203.2800000003</v>
@@ -3735,7 +3730,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="48"/>
       <c r="B64" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="50">
         <v>649376.32299999997</v>
@@ -3771,7 +3766,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="48"/>
       <c r="B65" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="55">
         <v>4231222.443</v>
@@ -3807,7 +3802,7 @@
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="48"/>
       <c r="B66" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="60">
         <v>7750029.8710000003</v>
@@ -3843,7 +3838,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="48"/>
       <c r="B67" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="55">
         <v>597649.22499999998</v>
@@ -3879,7 +3874,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="48"/>
       <c r="B68" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="55">
         <v>640578.52</v>
@@ -3915,7 +3910,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="48"/>
       <c r="B69" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="55">
         <v>195283.23199999999</v>
@@ -3951,7 +3946,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="48"/>
       <c r="B70" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="55">
         <v>204438.11499999999</v>
@@ -3987,7 +3982,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="48"/>
       <c r="B71" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="55">
         <v>397205.52399999998</v>
@@ -4023,7 +4018,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="48"/>
       <c r="B72" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="55">
         <v>289946.52899999998</v>
@@ -4059,7 +4054,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="48"/>
       <c r="B73" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="55">
         <v>363228.52600000001</v>
@@ -4095,7 +4090,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="48"/>
       <c r="B74" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="55">
         <v>104101.166</v>
@@ -4131,7 +4126,7 @@
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="48"/>
       <c r="B75" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="60">
         <v>68267.835000000006</v>
@@ -4167,7 +4162,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="48"/>
       <c r="B76" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="55">
         <v>667301.41200000001</v>
@@ -4203,7 +4198,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="48"/>
       <c r="B77" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="55">
         <v>430457.60700000002</v>
@@ -4239,7 +4234,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="48"/>
       <c r="B78" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="55">
         <v>445250.522</v>
@@ -4275,7 +4270,7 @@
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="48"/>
       <c r="B79" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="60">
         <v>1369446.4680000001</v>
@@ -4311,7 +4306,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="48"/>
       <c r="B80" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="55">
         <v>319950.50900000002</v>
@@ -4347,7 +4342,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="48"/>
       <c r="B81" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="55">
         <v>478454.00900000002</v>
@@ -4383,7 +4378,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="48"/>
       <c r="B82" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="55">
         <v>1018876.0820000001</v>
@@ -4419,7 +4414,7 @@
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="48"/>
       <c r="B83" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="60">
         <v>5932749.2709999997</v>
@@ -4455,7 +4450,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="48"/>
       <c r="B84" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="55">
         <v>553115.25399999996</v>
@@ -4491,7 +4486,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="48"/>
       <c r="B85" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="55">
         <v>112033.781</v>
@@ -4527,7 +4522,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="48"/>
       <c r="B86" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="55">
         <v>709639.99899999995</v>
@@ -4563,7 +4558,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="48"/>
       <c r="B87" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="55">
         <v>2614472.335</v>
@@ -4599,7 +4594,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="48"/>
       <c r="B88" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="55">
         <v>75972.998000000007</v>
@@ -4635,7 +4630,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="48"/>
       <c r="B89" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="55">
         <v>2479435.0150000001</v>
@@ -4671,7 +4666,7 @@
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="48"/>
       <c r="B90" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="60">
         <v>1176924.5460000001</v>
@@ -4707,7 +4702,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="48"/>
       <c r="B91" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="55">
         <v>701835.48899999994</v>
@@ -4743,7 +4738,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="48"/>
       <c r="B92" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="55">
         <v>355602.674</v>
@@ -4779,7 +4774,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="48"/>
       <c r="B93" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="55">
         <v>4982.8490000000002</v>
@@ -4797,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" s="57">
         <v>8.7858495340095804</v>
@@ -4815,7 +4810,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="48"/>
       <c r="B94" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="55">
         <v>61906.239000000001</v>
@@ -4851,7 +4846,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="48"/>
       <c r="B95" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="55">
         <v>341388.55200000003</v>
@@ -4887,7 +4882,7 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="48"/>
       <c r="B96" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="60">
         <v>191754.84599999999</v>
@@ -4923,7 +4918,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="48"/>
       <c r="B97" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="55">
         <v>983317.51699999999</v>
@@ -4959,7 +4954,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="55">
         <v>793690.02399999998</v>
@@ -4995,7 +4990,7 @@
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="48"/>
       <c r="B99" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="60">
         <v>337042.11900000001</v>
@@ -5044,7 +5039,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="68"/>
       <c r="C101" s="69"/>
@@ -5060,7 +5055,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B102" s="68"/>
       <c r="C102" s="69"/>
@@ -5076,7 +5071,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="68"/>
       <c r="C103" s="69"/>
@@ -5092,7 +5087,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="68"/>
       <c r="C104" s="69"/>
@@ -5108,7 +5103,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" s="68"/>
       <c r="C105" s="69"/>
@@ -5150,7 +5145,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -5178,7 +5173,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -5193,7 +5188,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -5221,7 +5216,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -5236,7 +5231,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -5264,7 +5259,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
   <si>
     <t>Tableau 5 : Estimations démographiques</t>
   </si>
@@ -496,19 +496,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -523,7 +526,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018.</t>
@@ -4741,13 +4744,13 @@
         <v>156</v>
       </c>
       <c r="C92" s="55">
-        <v>355602.674</v>
+        <v>355295.52399999998</v>
       </c>
       <c r="D92" s="55">
-        <v>123717.353</v>
+        <v>123642.32799999999</v>
       </c>
       <c r="E92" s="56">
-        <v>237970.05100000001</v>
+        <v>237751.14199999999</v>
       </c>
       <c r="F92" s="55">
         <v>13243.184999999999</v>
@@ -4762,13 +4765,13 @@
         <v>9</v>
       </c>
       <c r="J92" s="57">
-        <v>7.2407950169555804</v>
+        <v>7.3256891850258503</v>
       </c>
       <c r="K92" s="57">
-        <v>54.543864022087</v>
+        <v>53.568771481631103</v>
       </c>
       <c r="L92" s="58">
-        <v>61.784659039042602</v>
+        <v>60.894460666656997</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4882,7 +4885,7 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="48"/>
       <c r="B96" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="60">
         <v>191754.84599999999</v>
@@ -4918,7 +4921,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="48"/>
       <c r="B97" s="54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="55">
         <v>983317.51699999999</v>
@@ -4954,7 +4957,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="55">
         <v>793690.02399999998</v>
@@ -4990,7 +4993,7 @@
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="48"/>
       <c r="B99" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C99" s="60">
         <v>337042.11900000001</v>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B101" s="68"/>
       <c r="C101" s="69"/>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B102" s="68"/>
       <c r="C102" s="69"/>
@@ -5071,7 +5074,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B103" s="68"/>
       <c r="C103" s="69"/>
@@ -5087,7 +5090,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B104" s="68"/>
       <c r="C104" s="69"/>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B105" s="68"/>
       <c r="C105" s="69"/>
@@ -5145,7 +5148,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -5173,7 +5176,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab05.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -5262,7 +5262,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
